--- a/src/test/resources/test-data/TestData.xlsx
+++ b/src/test/resources/test-data/TestData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/eclipse-workspace/uitest-sampler/src/test/resources/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA586A3C-8556-314D-858F-5B9598AB699C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA2664B-80B9-C942-8783-79D55E65A243}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16640" xr2:uid="{9A69A41E-7DEF-3D43-80CA-B0ED197339DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="1" r:id="rId1"/>
+    <sheet name="Menu" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Home</t>
   </si>
@@ -93,9 +94,6 @@
     <t>http://www.namaonline.org/Education.aspx</t>
   </si>
   <si>
-    <t>Resources-Education-Education Home</t>
-  </si>
-  <si>
     <t>http://www.namaonline.org/NewsLetters.aspx</t>
   </si>
   <si>
@@ -115,13 +113,61 @@
   </si>
   <si>
     <t>http://www.namaonline.org/messageboard.aspx</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Home Page</t>
+  </si>
+  <si>
+    <t>North American Manipur Association</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Gallery</t>
+  </si>
+  <si>
+    <t>Constitution</t>
+  </si>
+  <si>
+    <t>Annoucement</t>
+  </si>
+  <si>
+    <t>Contact Us</t>
+  </si>
+  <si>
+    <t>http://www.namaonline.org/about.aspx</t>
+  </si>
+  <si>
+    <t>http://www.namaonline.org/gallery.aspx</t>
+  </si>
+  <si>
+    <t>http://www.namaonline.org/Constitutionofnama.aspx</t>
+  </si>
+  <si>
+    <t>http://www.namaonline.org/Announcement.aspx</t>
+  </si>
+  <si>
+    <t>http://www.namaonline.org/contactus.aspx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,6 +179,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,14 +209,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,139 +532,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F43DD4-EE04-A646-83B5-9A002F93E0C5}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37FE82A3-DC78-2C49-B386-DF1B0F74A76E}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C13450C9-F67A-A745-8C18-9E3F69384B0A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{700C6444-63FF-894B-9D7D-DD78014D6D8C}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{C0837477-BEED-D645-8819-ABF24A5BE5B9}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{B2A3DC22-6766-534A-B959-02DCD56EC915}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{474E15CC-AF2A-D547-BF4F-DE8F146CE0B1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/test-data/TestData.xlsx
+++ b/src/test/resources/test-data/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/eclipse-workspace/uitest-sampler/src/test/resources/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA2664B-80B9-C942-8783-79D55E65A243}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AABB4E8-2EEE-9B42-A391-41E5DB035EEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16640" xr2:uid="{9A69A41E-7DEF-3D43-80CA-B0ED197339DD}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Home</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>http://www.namaonline.org/contactus.aspx</t>
+  </si>
+  <si>
+    <t>North American Manipur Association1</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,7 +589,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
